--- a/Data_frame/balancos_definitivos/BRTP4.xlsx
+++ b/Data_frame/balancos_definitivos/BRTP4.xlsx
@@ -5778,7 +5778,7 @@
         <v>2877142.016</v>
       </c>
       <c r="H57" t="n">
-        <v>2899794.944</v>
+        <v>2899795.2</v>
       </c>
       <c r="I57" t="n">
         <v>2908844.032</v>
@@ -5790,7 +5790,7 @@
         <v>3315170.048</v>
       </c>
       <c r="L57" t="n">
-        <v>3502021.632</v>
+        <v>3502022.144</v>
       </c>
       <c r="M57" t="n">
         <v>3468730.88</v>
@@ -5826,7 +5826,7 @@
         <v>3997274.88</v>
       </c>
       <c r="X57" t="n">
-        <v>4130167.808</v>
+        <v>4130168.064</v>
       </c>
       <c r="Y57" t="n">
         <v>4036058.112</v>
@@ -5838,7 +5838,7 @@
         <v>4326005.76</v>
       </c>
       <c r="AB57" t="n">
-        <v>4465939.456</v>
+        <v>4465939.968</v>
       </c>
       <c r="AC57" t="n">
         <v>4377210.88</v>
@@ -5870,7 +5870,7 @@
         <v>-823708.992</v>
       </c>
       <c r="H58" t="n">
-        <v>-826605.056</v>
+        <v>-826604.992</v>
       </c>
       <c r="I58" t="n">
         <v>-833548.992</v>
@@ -5974,7 +5974,7 @@
         <v>2360890.88</v>
       </c>
       <c r="L59" t="n">
-        <v>2466069.504</v>
+        <v>2466069.76</v>
       </c>
       <c r="M59" t="n">
         <v>2447576.064</v>
@@ -5986,7 +5986,7 @@
         <v>2576292.096</v>
       </c>
       <c r="P59" t="n">
-        <v>2591888.384</v>
+        <v>2591888.128</v>
       </c>
       <c r="Q59" t="n">
         <v>2476897.024</v>
@@ -5998,7 +5998,7 @@
         <v>2627990.016</v>
       </c>
       <c r="T59" t="n">
-        <v>2741040.128</v>
+        <v>2741039.872</v>
       </c>
       <c r="U59" t="n">
         <v>2690856.96</v>
@@ -6078,7 +6078,7 @@
         <v>-1636734.976</v>
       </c>
       <c r="P60" t="n">
-        <v>-1650338.304</v>
+        <v>-1650338.048</v>
       </c>
       <c r="Q60" t="n">
         <v>-1567938.048</v>
@@ -6090,7 +6090,7 @@
         <v>-1604766.976</v>
       </c>
       <c r="T60" t="n">
-        <v>-1726416.896</v>
+        <v>-1726417.024</v>
       </c>
       <c r="U60" t="n">
         <v>-1611383.04</v>
@@ -6114,7 +6114,7 @@
         <v>-1520109.056</v>
       </c>
       <c r="AB60" t="n">
-        <v>-1587926.528</v>
+        <v>-1587926.272</v>
       </c>
       <c r="AC60" t="n">
         <v>-1498674.944</v>
@@ -6158,7 +6158,7 @@
         <v>881472</v>
       </c>
       <c r="L61" t="n">
-        <v>845150.976</v>
+        <v>845151.04</v>
       </c>
       <c r="M61" t="n">
         <v>861870.0159999999</v>
@@ -6182,7 +6182,7 @@
         <v>1023222.976</v>
       </c>
       <c r="T61" t="n">
-        <v>1014623.232</v>
+        <v>1014623.168</v>
       </c>
       <c r="U61" t="n">
         <v>1079474.048</v>
@@ -6194,7 +6194,7 @@
         <v>1205949.952</v>
       </c>
       <c r="X61" t="n">
-        <v>1249375.744</v>
+        <v>1249375.872</v>
       </c>
       <c r="Y61" t="n">
         <v>1206232.064</v>
@@ -6206,7 +6206,7 @@
         <v>1321490.048</v>
       </c>
       <c r="AB61" t="n">
-        <v>1282009.6</v>
+        <v>1282009.728</v>
       </c>
       <c r="AC61" t="n">
         <v>1269053.056</v>
@@ -6250,7 +6250,7 @@
         <v>-243200</v>
       </c>
       <c r="L62" t="n">
-        <v>-386803.072</v>
+        <v>-386803.04</v>
       </c>
       <c r="M62" t="n">
         <v>-370748.992</v>
@@ -6262,7 +6262,7 @@
         <v>-408118.016</v>
       </c>
       <c r="P62" t="n">
-        <v>-501884.032</v>
+        <v>-501883.968</v>
       </c>
       <c r="Q62" t="n">
         <v>-374416</v>
@@ -6298,7 +6298,7 @@
         <v>-344391.008</v>
       </c>
       <c r="AB62" t="n">
-        <v>-330377.984</v>
+        <v>-330377.952</v>
       </c>
       <c r="AC62" t="n">
         <v>-455183.008</v>
@@ -6330,7 +6330,7 @@
         <v>-205968</v>
       </c>
       <c r="H63" t="n">
-        <v>-243443.968</v>
+        <v>-243443.984</v>
       </c>
       <c r="I63" t="n">
         <v>-230432</v>
@@ -6366,7 +6366,7 @@
         <v>-325591.008</v>
       </c>
       <c r="T63" t="n">
-        <v>-342843.008</v>
+        <v>-342842.944</v>
       </c>
       <c r="U63" t="n">
         <v>-320696</v>
@@ -6405,91 +6405,35 @@
           <t xml:space="preserve">Perdas pela Não Recuperabilidade de Ativos </t>
         </is>
       </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6514,7 +6458,7 @@
         <v>48932</v>
       </c>
       <c r="H65" t="n">
-        <v>93761.024</v>
+        <v>93761.016</v>
       </c>
       <c r="I65" t="n">
         <v>349863.008</v>
@@ -6538,7 +6482,7 @@
         <v>98075</v>
       </c>
       <c r="P65" t="n">
-        <v>149718.976</v>
+        <v>149718.992</v>
       </c>
       <c r="Q65" t="n">
         <v>81746</v>
@@ -6562,7 +6506,7 @@
         <v>79105</v>
       </c>
       <c r="X65" t="n">
-        <v>236937.024</v>
+        <v>236937.008</v>
       </c>
       <c r="Y65" t="n">
         <v>146294</v>
@@ -6574,7 +6518,7 @@
         <v>114519</v>
       </c>
       <c r="AB65" t="n">
-        <v>424854.976</v>
+        <v>424855.008</v>
       </c>
       <c r="AC65" t="n">
         <v>113360</v>
@@ -6642,7 +6586,7 @@
         <v>-191154</v>
       </c>
       <c r="T66" t="n">
-        <v>-261500.992</v>
+        <v>-261501.024</v>
       </c>
       <c r="U66" t="n">
         <v>-202999.008</v>
@@ -6666,7 +6610,7 @@
         <v>-311256.992</v>
       </c>
       <c r="AB66" t="n">
-        <v>-556723.968</v>
+        <v>-556724.032</v>
       </c>
       <c r="AC66" t="n">
         <v>-660542.0159999999</v>
@@ -6882,7 +6826,7 @@
         <v>83679</v>
       </c>
       <c r="H69" t="n">
-        <v>106620.992</v>
+        <v>106621</v>
       </c>
       <c r="I69" t="n">
         <v>129986</v>
@@ -6906,7 +6850,7 @@
         <v>213460</v>
       </c>
       <c r="P69" t="n">
-        <v>105235.968</v>
+        <v>105235.984</v>
       </c>
       <c r="Q69" t="n">
         <v>116097</v>
@@ -6974,7 +6918,7 @@
         <v>-212959.008</v>
       </c>
       <c r="H70" t="n">
-        <v>-342801.92</v>
+        <v>-342801.952</v>
       </c>
       <c r="I70" t="n">
         <v>-381550.016</v>
@@ -7010,7 +6954,7 @@
         <v>-245612</v>
       </c>
       <c r="T70" t="n">
-        <v>-483500.928</v>
+        <v>-483500.96</v>
       </c>
       <c r="U70" t="n">
         <v>-494763.008</v>
@@ -7262,7 +7206,7 @@
         <v>-43941</v>
       </c>
       <c r="L73" t="n">
-        <v>-68716.03200000001</v>
+        <v>-68716.016</v>
       </c>
       <c r="M73" t="n">
         <v>-50216</v>
@@ -7354,7 +7298,7 @@
         <v>226370</v>
       </c>
       <c r="L74" t="n">
-        <v>-219410.016</v>
+        <v>-219410</v>
       </c>
       <c r="M74" t="n">
         <v>66768</v>
@@ -7402,7 +7346,7 @@
         <v>388912.992</v>
       </c>
       <c r="AB74" t="n">
-        <v>238094.976</v>
+        <v>238095.008</v>
       </c>
       <c r="AC74" t="n">
         <v>-61360</v>
@@ -7446,7 +7390,7 @@
         <v>-90521</v>
       </c>
       <c r="L75" t="n">
-        <v>50979.992</v>
+        <v>50980</v>
       </c>
       <c r="M75" t="n">
         <v>-20071</v>
@@ -7482,7 +7426,7 @@
         <v>-153438</v>
       </c>
       <c r="X75" t="n">
-        <v>-70536</v>
+        <v>-70536.008</v>
       </c>
       <c r="Y75" t="n">
         <v>-179246</v>
@@ -7494,7 +7438,7 @@
         <v>-176472.992</v>
       </c>
       <c r="AB75" t="n">
-        <v>-18928</v>
+        <v>-18928.016</v>
       </c>
       <c r="AC75" t="n">
         <v>-129931</v>
@@ -7850,7 +7794,7 @@
         <v>-63874</v>
       </c>
       <c r="X79" t="n">
-        <v>-69108.992</v>
+        <v>-69109</v>
       </c>
       <c r="Y79" t="n">
         <v>-105072</v>
@@ -7862,7 +7806,7 @@
         <v>-65124</v>
       </c>
       <c r="AB79" t="n">
-        <v>-61741.984</v>
+        <v>-61741.992</v>
       </c>
       <c r="AC79" t="n">
         <v>26038</v>
@@ -7894,7 +7838,7 @@
         <v>116641</v>
       </c>
       <c r="H80" t="n">
-        <v>-141643.008</v>
+        <v>-141642.992</v>
       </c>
       <c r="I80" t="n">
         <v>74348</v>
@@ -7906,7 +7850,7 @@
         <v>85210</v>
       </c>
       <c r="L80" t="n">
-        <v>41597.008</v>
+        <v>41597</v>
       </c>
       <c r="M80" t="n">
         <v>45088</v>
@@ -7942,7 +7886,7 @@
         <v>150312</v>
       </c>
       <c r="X80" t="n">
-        <v>205643.968</v>
+        <v>205643.984</v>
       </c>
       <c r="Y80" t="n">
         <v>248312.992</v>
@@ -7954,7 +7898,7 @@
         <v>164111.008</v>
       </c>
       <c r="AB80" t="n">
-        <v>115334.976</v>
+        <v>115335.008</v>
       </c>
       <c r="AC80" t="n">
         <v>-23357</v>
